--- a/resource requirements all spp_incl Butterfly larval foodplants.xlsx
+++ b/resource requirements all spp_incl Butterfly larval foodplants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naturalhistorymuseum-my.sharepoint.com/personal/a_varah_nhm_ac_uk/Documents/Black Grass Resistance Initiative/Biodiversity/Risk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2A0FB347-571D-4758-88ED-DE4957B54B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FE65CD5E-F64A-4945-97DE-22D7276414D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A5F802-27C3-CB46-80AE-98BDD44A1FA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{5226030B-2284-4679-9E67-4D625F242D5E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14080" windowHeight="17380" firstSheet="4" activeTab="9" xr2:uid="{5226030B-2284-4679-9E67-4D625F242D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="forage_plants_by_spp" sheetId="12" r:id="rId1"/>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="1" shapeId="0" xr:uid="{C3BDCF96-DD74-4C9E-9CB2-660398C30D7F}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{C3BDCF96-DD74-4C9E-9CB2-660398C30D7F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3866,7 +3866,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3978,12 +3978,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4418,7 +4412,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E12" dT="2021-04-12T11:28:52.12" personId="{BB242C2C-8835-4C60-8339-904C049916E9}" id="{C3BDCF96-DD74-4C9E-9CB2-660398C30D7F}">
+  <threadedComment ref="E8" dT="2021-04-12T11:28:52.12" personId="{BB242C2C-8835-4C60-8339-904C049916E9}" id="{C3BDCF96-DD74-4C9E-9CB2-660398C30D7F}">
     <text>errrr or family Caprifoliaceae</text>
   </threadedComment>
 </ThreadedComments>
@@ -4432,10 +4426,10 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="8.85546875" customWidth="1"/>
+    <col min="2" max="13" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" ht="42">
@@ -4485,7 +4479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="16">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4579,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row r="4" spans="1:15" ht="16">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -4626,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row r="5" spans="1:15" ht="16">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -4720,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="16">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4767,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -4814,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="16">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -4861,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -4908,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="16">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -4955,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="16">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -5002,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="16">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -5096,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30">
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -5143,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="16">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -5190,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="16">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -5237,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -5284,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -5331,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -5378,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -5425,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -5472,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="16">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -5519,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -5566,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -5613,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30">
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -5707,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="16">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -5754,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="16">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -5801,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="16">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -5848,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30">
+    <row r="31" spans="1:15" ht="16">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -5895,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="16">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -5942,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="16">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -5989,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="16">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -6036,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="16">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -6083,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="16">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -6130,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="16">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -6177,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="16">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
@@ -6224,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="16">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -6271,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="16">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -6318,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="16">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -6365,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="16">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -6412,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="16">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -6459,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="16">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
@@ -6506,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="16">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
@@ -6553,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="16">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
@@ -6600,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="16">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -6647,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="16">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -6694,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="16">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -6741,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="16">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -6801,19 +6795,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="67.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="67.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6842,111 +6836,105 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>144</v>
+    <row r="2" spans="1:8" ht="16">
+      <c r="A2" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>91</v>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
@@ -6972,211 +6960,205 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>343</v>
+        <v>163</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>344</v>
+        <v>357</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>326</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>74</v>
+    <row r="11" spans="1:8" ht="16">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>339</v>
+        <v>349</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45">
+    <row r="12" spans="1:8" ht="48">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>358</v>
+        <v>164</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>314</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="2" t="s">
-        <v>76</v>
+    <row r="14" spans="1:8" ht="16">
+      <c r="A14" s="34" t="s">
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>334</v>
+        <v>345</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>347</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>160</v>
@@ -7185,266 +7167,276 @@
         <v>164</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>351</v>
+        <v>340</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>323</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>83</v>
+    <row r="17" spans="1:8" ht="16">
+      <c r="A17" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>327</v>
+        <v>317</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>318</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>84</v>
+    <row r="18" spans="1:8" ht="16">
+      <c r="A18" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>325</v>
+        <v>341</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>318</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>352</v>
+        <v>307</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>308</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>353</v>
+        <v>310</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>133</v>
+    <row r="25" spans="1:8" ht="16">
+      <c r="A25" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
-    <sortCondition ref="C2:C25"/>
-    <sortCondition ref="D2:D25"/>
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{4D1AD9AD-336D-4F98-81FD-53FB661C0507}"/>
+    <hyperlink ref="H14" r:id="rId1" xr:uid="{4D1AD9AD-336D-4F98-81FD-53FB661C0507}"/>
     <hyperlink ref="H3:H25" r:id="rId2" display="https://www.ukbutterflies.co.uk/foodplants.php?style=butterfly" xr:uid="{20C22AF4-5C17-4510-98B9-E3A71AB78674}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7461,15 +7453,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7518,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
@@ -7555,15 +7547,15 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7589,7 +7581,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" customHeight="1">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -7612,67 +7604,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1">
+    <row r="3" spans="1:7" ht="14.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1">
+    <row r="4" spans="1:7" ht="14.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1">
+    <row r="5" spans="1:7" ht="14.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1">
+    <row r="6" spans="1:7" ht="14.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1">
+    <row r="7" spans="1:7" ht="14.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1">
+    <row r="8" spans="1:7" ht="14.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1">
+    <row r="9" spans="1:7" ht="14.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
+    <row r="10" spans="1:7" ht="14.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
+    <row r="11" spans="1:7" ht="14.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1">
+    <row r="12" spans="1:7" ht="14.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1">
+    <row r="13" spans="1:7" ht="14.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1">
+    <row r="14" spans="1:7" ht="14.5" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" customHeight="1">
+    <row r="15" spans="1:7" ht="14.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -7693,32 +7685,32 @@
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="15.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="30">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="32">
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
@@ -7744,7 +7736,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -7770,7 +7762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -7796,7 +7788,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -7822,7 +7814,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -7848,7 +7840,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -7874,7 +7866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -7900,7 +7892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -7926,7 +7918,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -7952,7 +7944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7978,7 +7970,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16">
       <c r="A11" s="22" t="s">
         <v>121</v>
       </c>
@@ -8004,7 +7996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="16">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -8030,7 +8022,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="16">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -8056,7 +8048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="22" t="s">
         <v>122</v>
       </c>
@@ -8082,7 +8074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="16">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -8108,7 +8100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -8134,7 +8126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -8160,7 +8152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="22" t="s">
         <v>120</v>
       </c>
@@ -8186,7 +8178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -8212,7 +8204,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -8238,7 +8230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -8264,7 +8256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -8290,7 +8282,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -8316,7 +8308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -8342,7 +8334,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="16">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -8368,7 +8360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -8394,7 +8386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="16">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -8420,7 +8412,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="4" t="s">
         <v>44</v>
       </c>
@@ -8446,7 +8438,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -8472,7 +8464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -8498,7 +8490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -8524,7 +8516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -8550,7 +8542,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -8576,7 +8568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -8602,7 +8594,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="16">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -8628,7 +8620,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="16">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -8654,7 +8646,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="16">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -8680,7 +8672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="16">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
@@ -8706,7 +8698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="16">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -8732,7 +8724,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="16">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -8758,7 +8750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="16">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -8784,7 +8776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -8810,7 +8802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="16">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -8836,7 +8828,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="16">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -8862,7 +8854,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="16">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
@@ -8888,7 +8880,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="16">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
@@ -8914,7 +8906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30">
+    <row r="47" spans="1:8" ht="16">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -8940,7 +8932,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="16">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -8966,7 +8958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="16">
       <c r="A49" s="4" t="s">
         <v>35</v>
       </c>
@@ -8992,7 +8984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="16">
       <c r="A50" s="22" t="s">
         <v>123</v>
       </c>
@@ -9018,7 +9010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="16">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -9044,7 +9036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="16">
       <c r="A52" s="4" t="s">
         <v>37</v>
       </c>
@@ -9070,7 +9062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="16">
       <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
@@ -9096,7 +9088,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="16">
       <c r="A54" s="4" t="s">
         <v>47</v>
       </c>
@@ -9146,15 +9138,15 @@
       <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9203,7 +9195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -9226,7 +9218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -9249,7 +9241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -9272,7 +9264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -9295,7 +9287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -9318,7 +9310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -9341,7 +9333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -9364,7 +9356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -9387,7 +9379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -9410,7 +9402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -9456,7 +9448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -9479,7 +9471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -9502,7 +9494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -9525,7 +9517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
@@ -9548,7 +9540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -9571,7 +9563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -9594,7 +9586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -9617,7 +9609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -9640,7 +9632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="A22" s="16" t="s">
         <v>79</v>
       </c>
@@ -9663,7 +9655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -9686,7 +9678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -9709,7 +9701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
@@ -9732,7 +9724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -9755,7 +9747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -9778,7 +9770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="2" t="s">
         <v>144</v>
       </c>
@@ -9801,7 +9793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -9824,7 +9816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -9847,7 +9839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="2" t="s">
         <v>131</v>
       </c>
@@ -9870,7 +9862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="2" t="s">
         <v>133</v>
       </c>
@@ -9893,7 +9885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="2" t="s">
         <v>185</v>
       </c>
@@ -9916,7 +9908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -9939,7 +9931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -9962,7 +9954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="2" t="s">
         <v>184</v>
       </c>
@@ -9985,7 +9977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
@@ -10008,7 +10000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -10031,7 +10023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
@@ -10096,13 +10088,13 @@
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10147,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -10168,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -10189,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -10210,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -10231,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -10252,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -10273,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -10294,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -10315,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -10336,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -10357,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -10378,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -10399,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -10420,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -10441,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
@@ -10462,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
@@ -10483,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="4" t="s">
         <v>74</v>
       </c>
@@ -10504,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -10525,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -10546,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -10567,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -10588,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -10609,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -10630,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -10651,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -10672,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="16" t="s">
         <v>79</v>
       </c>
@@ -10693,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="16" t="s">
         <v>79</v>
       </c>
@@ -10714,7 +10706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -10735,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -10756,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -10777,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -10798,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -10819,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -10840,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16">
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
@@ -10861,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -10882,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -10903,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="16">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -10924,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="16">
       <c r="A40" s="2" t="s">
         <v>144</v>
       </c>
@@ -10945,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="16">
       <c r="A41" s="2" t="s">
         <v>144</v>
       </c>
@@ -10966,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -10987,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -11008,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="16">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -11029,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="16">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -11050,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="16">
       <c r="A46" s="2" t="s">
         <v>131</v>
       </c>
@@ -11071,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="16">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -11092,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="16">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -11113,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="16">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -11134,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="16">
       <c r="A50" s="2" t="s">
         <v>185</v>
       </c>
@@ -11155,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="16">
       <c r="A51" s="2" t="s">
         <v>185</v>
       </c>
@@ -11176,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="16">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
@@ -11197,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="16">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -11218,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="16">
       <c r="A54" s="2" t="s">
         <v>88</v>
       </c>
@@ -11239,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="16">
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
@@ -11260,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="16">
       <c r="A56" s="2" t="s">
         <v>184</v>
       </c>
@@ -11281,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="16">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -11302,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="16">
       <c r="A58" s="2" t="s">
         <v>89</v>
       </c>
@@ -11323,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="16">
       <c r="A59" s="2" t="s">
         <v>89</v>
       </c>
@@ -11344,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="16">
       <c r="A60" s="2" t="s">
         <v>90</v>
       </c>
@@ -11365,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="16">
       <c r="A61" s="2" t="s">
         <v>90</v>
       </c>
@@ -11386,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="16">
       <c r="A62" s="4" t="s">
         <v>91</v>
       </c>
@@ -11407,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="16">
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
@@ -11447,17 +11439,17 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="27" customFormat="1">
@@ -11518,7 +11510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -11547,7 +11539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -11576,7 +11568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -11605,7 +11597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -11634,7 +11626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -11663,7 +11655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -11692,7 +11684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
@@ -11721,7 +11713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -11750,7 +11742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -11779,7 +11771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -11808,7 +11800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -11837,7 +11829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -11866,7 +11858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -11939,13 +11931,13 @@
       <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11968,7 +11960,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="4" t="s">
         <v>194</v>
       </c>
@@ -11988,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="2" t="s">
         <v>195</v>
       </c>
@@ -12008,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="2" t="s">
         <v>196</v>
       </c>
@@ -12028,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="2" t="s">
         <v>197</v>
       </c>
@@ -12048,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="2" t="s">
         <v>198</v>
       </c>
@@ -12068,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="2" t="s">
         <v>199</v>
       </c>
@@ -12088,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="2" t="s">
         <v>200</v>
       </c>
@@ -12108,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="2" t="s">
         <v>201</v>
       </c>
@@ -12128,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="2" t="s">
         <v>202</v>
       </c>
@@ -12148,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="2" t="s">
         <v>203</v>
       </c>
@@ -12168,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="2" t="s">
         <v>204</v>
       </c>
@@ -12188,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="2" t="s">
         <v>205</v>
       </c>
@@ -12208,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="2" t="s">
         <v>206</v>
       </c>
@@ -12228,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="2" t="s">
         <v>207</v>
       </c>
@@ -12248,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="2" t="s">
         <v>208</v>
       </c>
@@ -12288,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="2" t="s">
         <v>209</v>
       </c>
@@ -12308,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="2" t="s">
         <v>210</v>
       </c>
@@ -12328,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="2" t="s">
         <v>211</v>
       </c>
@@ -12348,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="2" t="s">
         <v>212</v>
       </c>
@@ -12368,7 +12360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="2" t="s">
         <v>213</v>
       </c>
@@ -12388,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="2" t="s">
         <v>214</v>
       </c>
@@ -12408,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="2" t="s">
         <v>215</v>
       </c>
@@ -12428,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="2" t="s">
         <v>216</v>
       </c>
@@ -12448,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="2" t="s">
         <v>217</v>
       </c>
@@ -12468,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="2" t="s">
         <v>218</v>
       </c>
@@ -12488,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="2" t="s">
         <v>219</v>
       </c>
@@ -12508,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="2" t="s">
         <v>220</v>
       </c>
@@ -12528,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="2" t="s">
         <v>221</v>
       </c>
@@ -12548,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="2" t="s">
         <v>222</v>
       </c>
@@ -12568,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="16">
       <c r="A32" s="2" t="s">
         <v>223</v>
       </c>
@@ -12588,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="16">
       <c r="A33" s="2" t="s">
         <v>224</v>
       </c>
@@ -12608,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="16">
       <c r="A34" s="2" t="s">
         <v>225</v>
       </c>
@@ -12628,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="16">
       <c r="A35" s="2" t="s">
         <v>226</v>
       </c>
@@ -12648,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16">
       <c r="A36" s="2" t="s">
         <v>227</v>
       </c>
@@ -12668,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="16">
       <c r="A37" s="2" t="s">
         <v>228</v>
       </c>
@@ -12688,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="16">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
@@ -12708,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="16">
       <c r="A39" s="2" t="s">
         <v>230</v>
       </c>
@@ -12728,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="16">
       <c r="A40" s="2" t="s">
         <v>231</v>
       </c>
@@ -12748,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="16">
       <c r="A41" s="2" t="s">
         <v>232</v>
       </c>
@@ -12768,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="16">
       <c r="A42" s="2" t="s">
         <v>233</v>
       </c>
@@ -12788,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="16">
       <c r="A43" s="2" t="s">
         <v>234</v>
       </c>
@@ -12808,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="16">
       <c r="A44" s="2" t="s">
         <v>235</v>
       </c>
@@ -12828,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="16">
       <c r="A45" s="4" t="s">
         <v>236</v>
       </c>
@@ -12863,10 +12855,10 @@
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12881,7 +12873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -12892,7 +12884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -12903,7 +12895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -12914,7 +12906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -12925,7 +12917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -12936,7 +12928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -12947,7 +12939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -12958,7 +12950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -12969,7 +12961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
@@ -12980,7 +12972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
@@ -12991,7 +12983,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -13002,7 +12994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -13013,7 +13005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -13024,7 +13016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -13035,7 +13027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="16">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -13046,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
@@ -13057,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -13068,7 +13060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="16">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -13079,7 +13071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="16">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -13090,7 +13082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="16">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -13101,7 +13093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="24" customFormat="1">
+    <row r="22" spans="1:3" s="24" customFormat="1" ht="16">
       <c r="A22" s="34" t="s">
         <v>79</v>
       </c>
@@ -13112,7 +13104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="16">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -13123,7 +13115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="16">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -13134,7 +13126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
@@ -13145,7 +13137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="16">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -13156,7 +13148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="16">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -13167,7 +13159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="16">
       <c r="A28" s="2" t="s">
         <v>144</v>
       </c>
@@ -13178,7 +13170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="16">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -13189,7 +13181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="16">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -13200,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="16">
       <c r="A31" s="2" t="s">
         <v>131</v>
       </c>
@@ -13211,7 +13203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="16">
       <c r="A32" s="2" t="s">
         <v>133</v>
       </c>
@@ -13222,7 +13214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="16">
       <c r="A33" s="2" t="s">
         <v>185</v>
       </c>
@@ -13233,7 +13225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -13244,7 +13236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16">
       <c r="A35" s="2" t="s">
         <v>88</v>
       </c>
@@ -13255,7 +13247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16">
       <c r="A36" s="2" t="s">
         <v>184</v>
       </c>
@@ -13266,7 +13258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16">
       <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
@@ -13277,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -13288,7 +13280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="16">
       <c r="A39" s="4" t="s">
         <v>91</v>
       </c>
@@ -13299,7 +13291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="16">
       <c r="A40" s="31" t="s">
         <v>198</v>
       </c>
@@ -13310,7 +13302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="16">
       <c r="A41" s="31" t="s">
         <v>199</v>
       </c>
@@ -13321,7 +13313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="16">
       <c r="A42" s="31" t="s">
         <v>200</v>
       </c>
@@ -13332,7 +13324,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="16">
       <c r="A43" s="31" t="s">
         <v>202</v>
       </c>
@@ -13343,7 +13335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="16">
       <c r="A44" s="31" t="s">
         <v>205</v>
       </c>
@@ -13354,7 +13346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="16">
       <c r="A45" s="31" t="s">
         <v>210</v>
       </c>
@@ -13365,7 +13357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="16">
       <c r="A46" s="29" t="s">
         <v>236</v>
       </c>
@@ -13376,7 +13368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="16">
       <c r="A47" s="31" t="s">
         <v>207</v>
       </c>
@@ -13387,7 +13379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="16">
       <c r="A48" s="31" t="s">
         <v>208</v>
       </c>
@@ -13398,7 +13390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="31" t="s">
         <v>213</v>
       </c>
@@ -13409,7 +13401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="16">
       <c r="A50" s="31" t="s">
         <v>214</v>
       </c>
@@ -13420,7 +13412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="16">
       <c r="A51" s="31" t="s">
         <v>215</v>
       </c>
@@ -13431,7 +13423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="16">
       <c r="A52" s="31" t="s">
         <v>231</v>
       </c>
@@ -13442,7 +13434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="16">
       <c r="A53" s="31" t="s">
         <v>232</v>
       </c>
@@ -13453,7 +13445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="16">
       <c r="A54" s="31" t="s">
         <v>197</v>
       </c>
@@ -13464,7 +13456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="16">
       <c r="A55" s="31" t="s">
         <v>203</v>
       </c>
@@ -13475,7 +13467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="16">
       <c r="A56" s="31" t="s">
         <v>216</v>
       </c>
@@ -13486,7 +13478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="16">
       <c r="A57" s="31" t="s">
         <v>217</v>
       </c>
@@ -13497,7 +13489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="16">
       <c r="A58" s="31" t="s">
         <v>218</v>
       </c>
@@ -13508,7 +13500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="16">
       <c r="A59" s="31" t="s">
         <v>219</v>
       </c>
@@ -13519,7 +13511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="16">
       <c r="A60" s="31" t="s">
         <v>220</v>
       </c>
@@ -13530,7 +13522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="16">
       <c r="A61" s="31" t="s">
         <v>222</v>
       </c>
@@ -13541,7 +13533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="16">
       <c r="A62" s="31" t="s">
         <v>223</v>
       </c>
@@ -13552,7 +13544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="16">
       <c r="A63" s="31" t="s">
         <v>225</v>
       </c>
@@ -13563,7 +13555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="16">
       <c r="A64" s="31" t="s">
         <v>226</v>
       </c>
@@ -13574,7 +13566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="16">
       <c r="A65" s="31" t="s">
         <v>227</v>
       </c>
@@ -13585,7 +13577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="16">
       <c r="A66" s="31" t="s">
         <v>228</v>
       </c>
@@ -13596,7 +13588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="16">
       <c r="A67" s="31" t="s">
         <v>229</v>
       </c>
@@ -13607,7 +13599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="16">
       <c r="A68" s="31" t="s">
         <v>204</v>
       </c>
@@ -13618,7 +13610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="16">
       <c r="A69" s="31" t="s">
         <v>221</v>
       </c>
@@ -13629,7 +13621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="16">
       <c r="A70" s="31" t="s">
         <v>233</v>
       </c>
@@ -13640,7 +13632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="16">
       <c r="A71" s="31" t="s">
         <v>234</v>
       </c>
@@ -13651,7 +13643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="16">
       <c r="A72" s="31" t="s">
         <v>235</v>
       </c>
@@ -13662,7 +13654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="16">
       <c r="A73" s="31" t="s">
         <v>206</v>
       </c>
@@ -13673,7 +13665,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="16">
       <c r="A74" s="31" t="s">
         <v>224</v>
       </c>
@@ -13684,7 +13676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="16">
       <c r="A75" s="31" t="s">
         <v>196</v>
       </c>
@@ -13695,7 +13687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="16">
       <c r="A76" s="31" t="s">
         <v>209</v>
       </c>
@@ -13706,7 +13698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="16">
       <c r="A77" s="31" t="s">
         <v>245</v>
       </c>
@@ -13717,7 +13709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="16">
       <c r="A78" s="31" t="s">
         <v>212</v>
       </c>
@@ -13728,7 +13720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="16">
       <c r="A79" s="29" t="s">
         <v>194</v>
       </c>
@@ -13739,7 +13731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="16">
       <c r="A80" s="31" t="s">
         <v>195</v>
       </c>
@@ -13761,7 +13753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" s="31" t="s">
         <v>211</v>
       </c>
@@ -13772,7 +13764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="16">
       <c r="A83" s="31" t="s">
         <v>230</v>
       </c>
@@ -13801,14 +13793,14 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="32"/>
-    <col min="6" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="1" width="23.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="32"/>
+    <col min="6" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="28" customFormat="1">
@@ -13828,7 +13820,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="31" t="s">
         <v>198</v>
       </c>
@@ -13845,7 +13837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="31" t="s">
         <v>199</v>
       </c>
@@ -13862,7 +13854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="31" t="s">
         <v>200</v>
       </c>
@@ -13879,7 +13871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="31" t="s">
         <v>202</v>
       </c>
@@ -13896,7 +13888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="31" t="s">
         <v>205</v>
       </c>
@@ -13913,7 +13905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="31" t="s">
         <v>210</v>
       </c>
@@ -13930,7 +13922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="29" t="s">
         <v>236</v>
       </c>
@@ -13947,7 +13939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="31" t="s">
         <v>207</v>
       </c>
@@ -13964,7 +13956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="31" t="s">
         <v>208</v>
       </c>
@@ -13981,7 +13973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="31" t="s">
         <v>213</v>
       </c>
@@ -13998,7 +13990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="31" t="s">
         <v>214</v>
       </c>
@@ -14015,7 +14007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="31" t="s">
         <v>215</v>
       </c>
@@ -14032,7 +14024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="31" t="s">
         <v>231</v>
       </c>
@@ -14049,7 +14041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="31" t="s">
         <v>232</v>
       </c>
@@ -14066,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="31" t="s">
         <v>197</v>
       </c>
@@ -14083,7 +14075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="31" t="s">
         <v>203</v>
       </c>
@@ -14100,7 +14092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="31" t="s">
         <v>216</v>
       </c>
@@ -14117,7 +14109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="31" t="s">
         <v>217</v>
       </c>
@@ -14134,7 +14126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="31" t="s">
         <v>218</v>
       </c>
@@ -14151,7 +14143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="31" t="s">
         <v>219</v>
       </c>
@@ -14168,7 +14160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="31" t="s">
         <v>220</v>
       </c>
@@ -14185,7 +14177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="31" t="s">
         <v>222</v>
       </c>
@@ -14202,7 +14194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="31" t="s">
         <v>223</v>
       </c>
@@ -14219,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="31" t="s">
         <v>225</v>
       </c>
@@ -14236,7 +14228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="31" t="s">
         <v>226</v>
       </c>
@@ -14253,7 +14245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="31" t="s">
         <v>227</v>
       </c>
@@ -14270,7 +14262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="31" t="s">
         <v>228</v>
       </c>
@@ -14287,7 +14279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="31" t="s">
         <v>229</v>
       </c>
@@ -14304,7 +14296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="31" t="s">
         <v>204</v>
       </c>
@@ -14321,7 +14313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="31" t="s">
         <v>221</v>
       </c>
@@ -14338,7 +14330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="31" t="s">
         <v>233</v>
       </c>
@@ -14355,7 +14347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="31" t="s">
         <v>234</v>
       </c>
@@ -14372,7 +14364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="31" t="s">
         <v>235</v>
       </c>
@@ -14389,7 +14381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="31" t="s">
         <v>206</v>
       </c>
@@ -14406,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="31" t="s">
         <v>224</v>
       </c>
@@ -14423,7 +14415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="31" t="s">
         <v>196</v>
       </c>
@@ -14440,7 +14432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="31" t="s">
         <v>209</v>
       </c>
@@ -14457,7 +14449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="31" t="s">
         <v>245</v>
       </c>
@@ -14474,7 +14466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="31" t="s">
         <v>212</v>
       </c>
@@ -14491,7 +14483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="29" t="s">
         <v>194</v>
       </c>
@@ -14508,7 +14500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="31" t="s">
         <v>195</v>
       </c>
@@ -14542,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="31" t="s">
         <v>211</v>
       </c>
@@ -14559,7 +14551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="31" t="s">
         <v>230</v>
       </c>
@@ -14596,11 +14588,11 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -14611,7 +14603,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -14619,7 +14611,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -14627,7 +14619,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -14635,7 +14627,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -14643,7 +14635,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -14651,7 +14643,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -14659,7 +14651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -14667,7 +14659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="16">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -14675,7 +14667,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
@@ -14683,7 +14675,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
@@ -14691,7 +14683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="16">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -14699,7 +14691,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="16">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -14707,7 +14699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -14715,7 +14707,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="16">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
